--- a/stage 2.xlsx
+++ b/stage 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Project_Work_User\Documents\Git Repos\clg_pro_dengu_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A8A998-C07B-4644-BEEA-14002D33A00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F93664-76EF-4BAE-93A2-0B532FEAA1D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3206502D-0C27-470D-BF70-DB35BE311F64}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="26">
   <si>
     <t>fever</t>
   </si>
@@ -132,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,12 +140,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A959D129-D7FA-4351-86CA-9E75A31DA798}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194:U235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,7 +2250,2529 @@
         <v>13</v>
       </c>
     </row>
+    <row r="193" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="194" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="1">
+        <v>104</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T194" s="1">
+        <v>8000</v>
+      </c>
+      <c r="U194" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="1">
+        <v>103.6</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N195" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T195" s="1">
+        <v>12000</v>
+      </c>
+      <c r="U195" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="1">
+        <v>102</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T196" s="1">
+        <v>39000</v>
+      </c>
+      <c r="U196" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="1">
+        <v>102.6</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T197" s="1">
+        <v>11000</v>
+      </c>
+      <c r="U197" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="1">
+        <v>103.4</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T198" s="1">
+        <v>6000</v>
+      </c>
+      <c r="U198" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="1">
+        <v>104.8</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T199" s="1">
+        <v>190000</v>
+      </c>
+      <c r="U199" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T200" s="1">
+        <v>150000</v>
+      </c>
+      <c r="U200" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="1">
+        <v>102.6</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T201" s="1">
+        <v>90000</v>
+      </c>
+      <c r="U201" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T202" s="1">
+        <v>13000</v>
+      </c>
+      <c r="U202" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="1">
+        <v>104.6</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T203" s="1">
+        <v>6000</v>
+      </c>
+      <c r="U203" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="1">
+        <v>101.4</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P204" s="2"/>
+      <c r="Q204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T204" s="1">
+        <v>250000</v>
+      </c>
+      <c r="U204" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="1">
+        <v>104.4</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L205" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T205" s="1">
+        <v>9000</v>
+      </c>
+      <c r="U205" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T206" s="1">
+        <v>75000</v>
+      </c>
+      <c r="U206" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="1">
+        <v>102.8</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T207" s="1">
+        <v>39000</v>
+      </c>
+      <c r="U207" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="1">
+        <v>101.5</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T208" s="1">
+        <v>30000</v>
+      </c>
+      <c r="U208" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="1">
+        <v>104.2</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T209" s="1">
+        <v>8000</v>
+      </c>
+      <c r="U209" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="1">
+        <v>101.4</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N210" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T210" s="1">
+        <v>12000</v>
+      </c>
+      <c r="U210" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="1">
+        <v>102.2</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T211" s="1">
+        <v>39000</v>
+      </c>
+      <c r="U211" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="1">
+        <v>101</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T212" s="1">
+        <v>11000</v>
+      </c>
+      <c r="U212" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="1">
+        <v>103</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L213" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O213" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S213" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T213" s="1">
+        <v>6000</v>
+      </c>
+      <c r="U213" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="1">
+        <v>104.2</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T214" s="1">
+        <v>190000</v>
+      </c>
+      <c r="U214" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T215" s="1">
+        <v>150000</v>
+      </c>
+      <c r="U215" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="1">
+        <v>102.6</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T216" s="1">
+        <v>90000</v>
+      </c>
+      <c r="U216" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="1">
+        <v>103.5</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M217" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N217" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T217" s="1">
+        <v>8000</v>
+      </c>
+      <c r="U217" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="1">
+        <v>99.7</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T218" s="1">
+        <v>340000</v>
+      </c>
+      <c r="U218" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="1">
+        <v>105</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T219" s="1">
+        <v>139000</v>
+      </c>
+      <c r="U219" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="1">
+        <v>103.2</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J220" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P220" s="2"/>
+      <c r="Q220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T220" s="1">
+        <v>7000</v>
+      </c>
+      <c r="U220" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="1">
+        <v>103.7</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P221" s="2"/>
+      <c r="Q221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T221" s="1">
+        <v>50000</v>
+      </c>
+      <c r="U221" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P222" s="2"/>
+      <c r="Q222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T222" s="1">
+        <v>13000</v>
+      </c>
+      <c r="U222" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="1">
+        <v>104.5</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L223" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P223" s="2"/>
+      <c r="Q223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T223" s="1">
+        <v>6000</v>
+      </c>
+      <c r="U223" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="1">
+        <v>101.9</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P224" s="2"/>
+      <c r="Q224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T224" s="1">
+        <v>250000</v>
+      </c>
+      <c r="U224" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="1">
+        <v>104.1</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J225" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P225" s="2"/>
+      <c r="Q225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T225" s="1">
+        <v>10000</v>
+      </c>
+      <c r="U225" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="1">
+        <v>100.6</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P226" s="2"/>
+      <c r="Q226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T226" s="1">
+        <v>160000</v>
+      </c>
+      <c r="U226" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="1">
+        <v>101.6</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T227" s="1">
+        <v>14000</v>
+      </c>
+      <c r="U227" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="1">
+        <v>104.2</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P228" s="2"/>
+      <c r="Q228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T228" s="1">
+        <v>55000</v>
+      </c>
+      <c r="U228" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="1">
+        <v>104.2</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L229" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P229" s="2"/>
+      <c r="Q229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T229" s="1">
+        <v>9000</v>
+      </c>
+      <c r="U229" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="1">
+        <v>103.4</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P230" s="2"/>
+      <c r="Q230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T230" s="1">
+        <v>75000</v>
+      </c>
+      <c r="U230" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="1">
+        <v>102</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L231" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M231" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N231" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O231" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P231" s="2"/>
+      <c r="Q231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S231" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T231" s="1">
+        <v>39000</v>
+      </c>
+      <c r="U231" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="1">
+        <v>104.5</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P232" s="2"/>
+      <c r="Q232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T232" s="1">
+        <v>15000</v>
+      </c>
+      <c r="U232" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="1">
+        <v>103.1</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L233" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M233" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N233" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O233" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P233" s="2"/>
+      <c r="Q233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S233" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T233" s="1">
+        <v>110000</v>
+      </c>
+      <c r="U233" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="1">
+        <v>102.2</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P234" s="2"/>
+      <c r="Q234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S234" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T234" s="1">
+        <v>200000</v>
+      </c>
+      <c r="U234" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="1">
+        <v>104</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P235" s="2"/>
+      <c r="Q235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T235" s="1">
+        <v>30000</v>
+      </c>
+      <c r="U235" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>